--- a/untranslated/downloads/data-excel/8.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.1.1.xlsx
@@ -611,9 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -622,7 +624,7 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1">
+    <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -641,7 +643,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -660,7 +662,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -673,7 +675,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -713,8 +715,11 @@
       <c r="M4" s="14">
         <v>2019</v>
       </c>
+      <c r="N4" s="14">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:14" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -754,8 +759,11 @@
       <c r="M5" s="17">
         <v>2.2999999999999998</v>
       </c>
+      <c r="N5" s="17">
+        <v>-10.199999999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" customFormat="1">
+    <row r="6" spans="1:14" customFormat="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -770,12 +778,12 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="I10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="I13" s="4" t="s">
         <v>12</v>
       </c>

--- a/untranslated/downloads/data-excel/8.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.1.1.xlsx
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,7 +624,7 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27" customHeight="1">
+    <row r="1" spans="1:15" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -675,7 +675,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -718,8 +718,11 @@
       <c r="N4" s="14">
         <v>2020</v>
       </c>
+      <c r="O4" s="14">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="N5" s="17">
         <v>-10.199999999999999</v>
       </c>
+      <c r="O5" s="17">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1">
+    <row r="6" spans="1:15" customFormat="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -778,12 +784,12 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="I10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="I13" s="4" t="s">
         <v>12</v>
       </c>

--- a/untranslated/downloads/data-excel/8.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.1.1.xlsx
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,7 +624,7 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1">
+    <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:14">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:14" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -675,7 +675,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -718,11 +718,8 @@
       <c r="N4" s="14">
         <v>2020</v>
       </c>
-      <c r="O4" s="14">
-        <v>2021</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:14" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -765,11 +762,8 @@
       <c r="N5" s="17">
         <v>-10.199999999999999</v>
       </c>
-      <c r="O5" s="17">
-        <v>4.3</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" customFormat="1">
+    <row r="6" spans="1:14" customFormat="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -784,12 +778,12 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="I10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="I13" s="4" t="s">
         <v>12</v>
       </c>

--- a/untranslated/downloads/data-excel/8.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.1.1.xlsx
@@ -611,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,7 +624,7 @@
     <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1">
+    <row r="1" spans="1:16" ht="27" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +643,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -662,7 +662,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -675,7 +675,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -721,8 +721,11 @@
       <c r="O4" s="14">
         <v>2021</v>
       </c>
+      <c r="P4" s="14">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -760,16 +763,19 @@
         <v>1.7</v>
       </c>
       <c r="M5" s="17">
-        <v>2.2999999999999998</v>
+        <v>-3.7</v>
       </c>
       <c r="N5" s="17">
-        <v>-10.199999999999999</v>
+        <v>-9</v>
       </c>
       <c r="O5" s="17">
-        <v>4.3</v>
+        <v>3.5</v>
+      </c>
+      <c r="P5" s="17">
+        <v>7.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" customFormat="1">
+    <row r="6" spans="1:16" customFormat="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -784,12 +790,12 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="I10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="I13" s="4" t="s">
         <v>12</v>
       </c>

--- a/untranslated/downloads/data-excel/8.1.1.xlsx
+++ b/untranslated/downloads/data-excel/8.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Наименование показателей</t>
   </si>
@@ -53,6 +53,72 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2020-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Данные с 2020 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2020 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -65,7 +131,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +229,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +290,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -228,8 +312,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -280,17 +365,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="19" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
+    <cellStyle name="Normal_GDP1" xfId="19"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 10" xfId="4"/>
     <cellStyle name="Обычный 2" xfId="1"/>
@@ -611,20 +698,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="38.7109375" style="4" customWidth="1"/>
-    <col min="4" max="13" width="8" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="3" width="37.5703125" style="4" customWidth="1"/>
+    <col min="4" max="17" width="8.42578125" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" customHeight="1">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -643,7 +728,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -662,10 +747,10 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -675,7 +760,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -724,8 +809,11 @@
       <c r="P4" s="14">
         <v>2022</v>
       </c>
+      <c r="Q4" s="14">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="31.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" ht="31.5" customHeight="1" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -739,16 +827,16 @@
         <v>-1.8</v>
       </c>
       <c r="E5" s="16">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F5" s="16">
-        <v>-1.8</v>
+        <v>-1.9</v>
       </c>
       <c r="G5" s="16">
         <v>8.6</v>
       </c>
       <c r="H5" s="16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="I5" s="16">
         <v>1.7</v>
@@ -760,10 +848,10 @@
         <v>2.6</v>
       </c>
       <c r="L5" s="17">
-        <v>1.7</v>
+        <v>-4.2</v>
       </c>
       <c r="M5" s="17">
-        <v>-3.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N5" s="17">
         <v>-9</v>
@@ -774,28 +862,37 @@
       <c r="P5" s="17">
         <v>7.1</v>
       </c>
+      <c r="Q5" s="17">
+        <v>7.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" customFormat="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
+    <row r="6" spans="1:17" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="I10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="I13" s="4" t="s">
         <v>12</v>
       </c>
